--- a/DateTables/Datas/__beans__.xlsx
+++ b/DateTables/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB90005-DC05-468E-A97A-F670AA4583FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D8CD73-C6CF-4A92-8C90-F5EBA0AC386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16335" yWindow="3240" windowWidth="19530" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>字段变体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>models.item</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -128,6 +124,10 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityItem</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +523,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,27 +631,27 @@
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
       <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DateTables/Datas/__beans__.xlsx
+++ b/DateTables/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D8CD73-C6CF-4A92-8C90-F5EBA0AC386A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C8A03-9F27-4780-8EA0-9CCB2752BB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16335" yWindow="3240" windowWidth="19530" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
